--- a/data/trans_bre/P41A_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P41A_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-6.18287486332324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.983125994832586</v>
+        <v>2.983125994832592</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2708054382696058</v>
@@ -649,7 +649,7 @@
         <v>-0.1556673285183401</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.07645142373430169</v>
+        <v>0.07645142373430183</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-24.39046399157915</v>
+        <v>-24.36275241341535</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.784887331187651</v>
+        <v>-8.707062299504814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.11762766016601</v>
+        <v>-14.07187232305743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.679247336872352</v>
+        <v>-5.519642223353041</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3922118746300823</v>
+        <v>-0.3925872428152114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2011367408301807</v>
+        <v>-0.2231167745344076</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3214424420415926</v>
+        <v>-0.3264088901920494</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1272744006740308</v>
+        <v>-0.1274886141567763</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.250489483580925</v>
+        <v>-6.602777147718355</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.364559962612088</v>
+        <v>8.52229940349303</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.084042350125114</v>
+        <v>1.923533162732474</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.82012901181765</v>
+        <v>11.29926264320752</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.116009138961281</v>
+        <v>-0.1216040526307418</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2789405815303352</v>
+        <v>0.2798573626937166</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06432754041663857</v>
+        <v>0.05549434922554099</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3533233425528021</v>
+        <v>0.3254027384618849</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.532223919448136</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-12.62345976291406</v>
+        <v>-12.62345976291409</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1380102474537626</v>
@@ -749,7 +749,7 @@
         <v>-0.1133845807239954</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3004460380491421</v>
+        <v>-0.3004460380491426</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.22280141935984</v>
+        <v>-12.82168621033962</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-18.76684884865762</v>
+        <v>-18.85336982946059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.904359463796863</v>
+        <v>-8.934229273002092</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-23.05028718127345</v>
+        <v>-23.38287464631548</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.260193863808084</v>
+        <v>-0.2538603957576433</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4133939254778341</v>
+        <v>-0.4132692041999015</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2573733214201929</v>
+        <v>-0.2661056481791116</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4721534870942711</v>
+        <v>-0.4769745210104808</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.04438698790418078</v>
+        <v>-0.4962037180702301</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-6.560274477260275</v>
+        <v>-6.023661468778633</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.405910893716522</v>
+        <v>2.242558030204284</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.155930832412328</v>
+        <v>-3.0147016929529</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.001487419357647732</v>
+        <v>-0.01160975489098082</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1711676829670975</v>
+        <v>-0.1632591639078494</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08942539643347802</v>
+        <v>0.07897259172721506</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.06449728238621692</v>
+        <v>-0.09219685680249541</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-15.44667904222238</v>
+        <v>-16.03636473641373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-18.71604115237907</v>
+        <v>-19.21661725865245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-14.83690205811607</v>
+        <v>-14.74501833041413</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-12.90178151235704</v>
+        <v>-13.84935736571064</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2870896881475749</v>
+        <v>-0.2975295144343104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3150184491991597</v>
+        <v>-0.3217878554478063</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2850824657406133</v>
+        <v>-0.2806060895688055</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.321091330430431</v>
+        <v>-0.3273625653450851</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.4641793107281641</v>
+        <v>-0.5512149810035967</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.421185665070701</v>
+        <v>-3.457736751872086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2033258313120299</v>
+        <v>0.8672147024486234</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.926357016414969</v>
+        <v>1.343162724479779</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.01306852802884726</v>
+        <v>-0.01559004700502523</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.06331344641537688</v>
+        <v>-0.06672320244534186</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.004473509803012819</v>
+        <v>0.01981908613401755</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.05531051307801234</v>
+        <v>0.04234975847912856</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.591803501930118</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.618055613615498</v>
+        <v>-0.6180556136154924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2387425995841553</v>
@@ -949,7 +949,7 @@
         <v>-0.08013452203374205</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.01528484284947578</v>
+        <v>-0.01528484284947564</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-19.73462344543568</v>
+        <v>-20.61320500199111</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-16.95095888707168</v>
+        <v>-17.64331167733133</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.599745233207051</v>
+        <v>-9.571829954300961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-11.76290955364112</v>
+        <v>-11.56714020040875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3415082433649149</v>
+        <v>-0.3519822773880331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.348321622089233</v>
+        <v>-0.3578426521470037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2715973687988332</v>
+        <v>-0.2640819454136299</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2479116210710443</v>
+        <v>-0.2436272753882004</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-6.114196695458709</v>
+        <v>-6.230502550582504</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.042042033899867</v>
+        <v>-3.568156998165097</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.082736664628023</v>
+        <v>4.504944449494523</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.259834351046688</v>
+        <v>9.479719450017656</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1174003558972965</v>
+        <v>-0.1204784320310514</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04416864327929854</v>
+        <v>-0.08234673243496837</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.147122583720387</v>
+        <v>0.1642134213197444</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2818039889051028</v>
+        <v>0.2784169618368881</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>-0.1239603919753379</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3847463951974927</v>
+        <v>-0.3847463951974928</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.44637627334452</v>
+        <v>-13.79896754128427</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-21.07310279458342</v>
+        <v>-20.6621009250835</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.20052206257084</v>
+        <v>-15.97223024151782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-28.79080508789544</v>
+        <v>-28.3312182174476</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3199645225924414</v>
+        <v>-0.3380571191107343</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3807490421702751</v>
+        <v>-0.386378101945137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2736925921328073</v>
+        <v>-0.2895579175626146</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.496232421207583</v>
+        <v>-0.4915148044753254</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.919874322720768</v>
+        <v>5.201684157679002</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.5929018076143167</v>
+        <v>-1.471853269309296</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.975208157258582</v>
+        <v>3.540501867081976</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-12.71250218377923</v>
+        <v>-12.54366148001197</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1970415342264906</v>
+        <v>0.175445555340192</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.01333036108944855</v>
+        <v>-0.03584093502762137</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08640821800598228</v>
+        <v>0.07964792565842126</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2577385822076669</v>
+        <v>-0.248356907352566</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>-0.3310862186268563</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.4798477721862845</v>
+        <v>-0.4798477721862847</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-22.97933848411418</v>
+        <v>-23.27965196368035</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-21.76723552624915</v>
+        <v>-22.23769387301852</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-25.13163954694909</v>
+        <v>-25.05330735470246</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-22.53745451345361</v>
+        <v>-22.78213504973934</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3801695752123743</v>
+        <v>-0.3871699966802283</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3689551677215891</v>
+        <v>-0.370432272943159</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4574883056199368</v>
+        <v>-0.453550170086133</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6112818947671755</v>
+        <v>-0.6063201558542389</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-6.979653973784663</v>
+        <v>-6.453382399423958</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-5.53877388861934</v>
+        <v>-5.223635055447862</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-8.484882632890537</v>
+        <v>-8.669101008596941</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-9.743019213640281</v>
+        <v>-9.328026777688422</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1323165521543214</v>
+        <v>-0.1239735771882292</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1107094007086134</v>
+        <v>-0.1001671651530517</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1838596493041903</v>
+        <v>-0.1859114678545274</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3210077355840998</v>
+        <v>-0.311501821168172</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.42042178877843</v>
+        <v>-10.76723911208977</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-21.77380406127518</v>
+        <v>-22.99847949152868</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.60161725498396</v>
+        <v>-13.16055205596787</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.76252268466839</v>
+        <v>-10.83088074418719</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2189443834943141</v>
+        <v>-0.2081014396461268</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3631139641413526</v>
+        <v>-0.3708017839830655</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2283965139592172</v>
+        <v>-0.2383739952540228</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2536629173886821</v>
+        <v>-0.255044805730587</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1360153839142825</v>
+        <v>0.4179717230682514</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-10.68523146549792</v>
+        <v>-12.14075561568727</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.226546242599629</v>
+        <v>-1.546440735923732</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.086459557815463</v>
+        <v>1.788519033750473</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.003230709072372925</v>
+        <v>0.0093396230993302</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1940864591931464</v>
+        <v>-0.2169436516716083</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.02485171732031051</v>
+        <v>-0.03296717888717245</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.0307051356440192</v>
+        <v>0.05041566495791332</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>-0.1818444308211048</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.07925976178131409</v>
+        <v>-0.07925976178131411</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-15.23199977037176</v>
+        <v>-14.83176244955555</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-11.65133174208186</v>
+        <v>-11.87670658638791</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-15.16836473890654</v>
+        <v>-14.69756097685994</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-9.610419348598327</v>
+        <v>-9.637876665263091</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3007975108850112</v>
+        <v>-0.3010676978996562</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2318777349307704</v>
+        <v>-0.2333138274437747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2656101086636922</v>
+        <v>-0.2570719187785964</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1882444622952939</v>
+        <v>-0.1883784854321505</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-4.922922503969851</v>
+        <v>-4.838616623896142</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-1.40945006121618</v>
+        <v>-1.724494204591864</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-5.205113300720086</v>
+        <v>-4.546877820212035</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.407859710842071</v>
+        <v>1.974098765924851</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1076536463504713</v>
+        <v>-0.1093885443869183</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.03213062699718442</v>
+        <v>-0.03757901595788341</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.09669628319565743</v>
+        <v>-0.08641533914711182</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05331652586345763</v>
+        <v>0.04489100034123579</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.8525964651964</v>
+        <v>-11.89395392201961</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-13.07346073430667</v>
+        <v>-13.10539519633839</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.639638070419258</v>
+        <v>-9.721035283128234</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-9.58324558299473</v>
+        <v>-9.553710051904488</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2326908159259578</v>
+        <v>-0.2340855555433168</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2587996810412096</v>
+        <v>-0.2576746951444129</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.2045487696620448</v>
+        <v>-0.2051079146600876</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.2233754127537926</v>
+        <v>-0.2207348107337079</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.922416262270819</v>
+        <v>-6.837338685907629</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-7.993693567895491</v>
+        <v>-8.272516947346965</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.919767159422063</v>
+        <v>-4.943880023264152</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.96502073252727</v>
+        <v>-4.017155614534061</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.1422689735358941</v>
+        <v>-0.1420262262209321</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.1675472282957889</v>
+        <v>-0.170463487309172</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.1096496232346727</v>
+        <v>-0.1097920862100889</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.09929288733368075</v>
+        <v>-0.103279287003893</v>
       </c>
     </row>
     <row r="31">
